--- a/Projectboard/ClassLibrary1/My Project/ReportTexte.xlsx
+++ b/Projectboard/ClassLibrary1/My Project/ReportTexte.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom\Documents\Visual Studio 2013\Projects\ProjectBoard\Projectboard\ClassLibrary1\My Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="13020"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="482">
   <si>
     <t xml:space="preserve"> Soll-Ist Kostenart </t>
   </si>
@@ -701,33 +696,15 @@
     <t xml:space="preserve">number of rows and columns does not fit to project status table </t>
   </si>
   <si>
-    <t>forecast</t>
-  </si>
-  <si>
     <t>there is no trend for that project</t>
   </si>
   <si>
     <t>no milestones specified</t>
   </si>
   <si>
-    <t>reporting periods</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approval </t>
-  </si>
-  <si>
-    <t>latest version</t>
-  </si>
-  <si>
     <t>Budget</t>
   </si>
   <si>
-    <t>other costs</t>
-  </si>
-  <si>
     <t>Overview Milestones</t>
   </si>
   <si>
@@ -779,21 +756,9 @@
     <t>Cost deviation</t>
   </si>
   <si>
-    <t>projects within tolerance (+/-</t>
-  </si>
-  <si>
-    <t>projects without latest version</t>
-  </si>
-  <si>
     <t>Capacity utilization</t>
   </si>
   <si>
-    <t>Above Capacity</t>
-  </si>
-  <si>
-    <t>Below Capacity</t>
-  </si>
-  <si>
     <t>no resource needs defined</t>
   </si>
   <si>
@@ -806,15 +771,6 @@
     <t>not fulfilled</t>
   </si>
   <si>
-    <t>fulfillment expected</t>
-  </si>
-  <si>
-    <t>fulfillment with uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfillment with high risks </t>
-  </si>
-  <si>
     <t xml:space="preserve">no fulfilled targets:time frame entirely in future </t>
   </si>
   <si>
@@ -854,9 +810,6 @@
     <t xml:space="preserve">Capacity incl. Ext. </t>
   </si>
   <si>
-    <t>feasibility limit</t>
-  </si>
-  <si>
     <t>Milestone</t>
   </si>
   <si>
@@ -914,18 +867,9 @@
     <t>additional cost due to above-capacity</t>
   </si>
   <si>
-    <t>potentials</t>
-  </si>
-  <si>
     <t>Budget Sum</t>
   </si>
   <si>
-    <t>cost to date</t>
-  </si>
-  <si>
-    <t>cost forecast</t>
-  </si>
-  <si>
     <t xml:space="preserve">Result  </t>
   </si>
   <si>
@@ -953,45 +897,12 @@
     <t>less expensive</t>
   </si>
   <si>
-    <t>personnel needs</t>
-  </si>
-  <si>
-    <t>personnel costs (T€)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personnel costs are zero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">other costs are zero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">personnel costs </t>
-  </si>
-  <si>
-    <t>total cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum other cost is zero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">total cost is zero </t>
-  </si>
-  <si>
     <t>history strategic fit &amp; risk</t>
   </si>
   <si>
-    <t>strategic fit</t>
-  </si>
-  <si>
     <t xml:space="preserve">no project history yet </t>
   </si>
   <si>
-    <t>history of KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost of Risk </t>
-  </si>
-  <si>
     <t>Result (Forecast)</t>
   </si>
   <si>
@@ -1010,51 +921,18 @@
     <t>project has already ended</t>
   </si>
   <si>
-    <t xml:space="preserve">target / actual personnel cost not possible </t>
-  </si>
-  <si>
-    <t xml:space="preserve">target / actual other cost not possible </t>
-  </si>
-  <si>
-    <t xml:space="preserve">target / actual total cost not possible </t>
-  </si>
-  <si>
-    <t xml:space="preserve">no approval </t>
-  </si>
-  <si>
     <t>no latest version</t>
   </si>
   <si>
     <t>Error in min-/max-calculation</t>
   </si>
   <si>
-    <t>min/max personnel cost (T€)</t>
-  </si>
-  <si>
-    <t>target-/actual personnel cost (T€)</t>
-  </si>
-  <si>
-    <t>min/max other cost (T€)</t>
-  </si>
-  <si>
-    <t>target-/actual other cost (T€)</t>
-  </si>
-  <si>
-    <t>min/max total cost (T€)</t>
-  </si>
-  <si>
-    <t>target-/actual total cost (T€)</t>
-  </si>
-  <si>
     <t>actual values</t>
   </si>
   <si>
     <t>minimum</t>
   </si>
   <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>maximum</t>
   </si>
   <si>
@@ -1064,18 +942,9 @@
     <t>Role</t>
   </si>
   <si>
-    <t>target-/actual role needs</t>
-  </si>
-  <si>
     <t xml:space="preserve"> not possible …</t>
   </si>
   <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target-/actual cost </t>
-  </si>
-  <si>
     <t>clarification needed, whether to consider past or future …</t>
   </si>
   <si>
@@ -1118,33 +987,12 @@
     <t xml:space="preserve"> months</t>
   </si>
   <si>
-    <t xml:space="preserve"> (approval)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (latest version)</t>
   </si>
   <si>
     <t xml:space="preserve"> Risk fee</t>
   </si>
   <si>
-    <t xml:space="preserve"> personnel costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> other costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> result forecast</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> earned value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> earned value - rated </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> improvement potential</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Overview Phases</t>
   </si>
   <si>
@@ -1314,6 +1162,309 @@
   </si>
   <si>
     <t xml:space="preserve">Produktlinie </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Progress Personnel Cost </t>
+  </si>
+  <si>
+    <t>Progress Other Costs</t>
+  </si>
+  <si>
+    <t>Progress Total Cost</t>
+  </si>
+  <si>
+    <t>Progress Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progress Cost </t>
+  </si>
+  <si>
+    <t>Improvement Potential for Result</t>
+  </si>
+  <si>
+    <t>Overview Budget</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Strategy/Risk/Profit-Margin</t>
+  </si>
+  <si>
+    <t>Strategy/Risk/Influence</t>
+  </si>
+  <si>
+    <t>Time/Risk/Volume</t>
+  </si>
+  <si>
+    <t>Overview Better/Worse</t>
+  </si>
+  <si>
+    <t>Overview Utilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (FTE)</t>
+  </si>
+  <si>
+    <t>Details below-Capacity</t>
+  </si>
+  <si>
+    <t>Details above-Capacity</t>
+  </si>
+  <si>
+    <t>Current Target Achievements</t>
+  </si>
+  <si>
+    <t>Forecast Target Achievements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version: </t>
+  </si>
+  <si>
+    <t>Timeperiod:</t>
+  </si>
+  <si>
+    <t>Traffic Light Explanation</t>
+  </si>
+  <si>
+    <t>Business Unit</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Responsible:</t>
+  </si>
+  <si>
+    <t>Project Time:</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Trend KPIs</t>
+  </si>
+  <si>
+    <t>Trend Strategy/Risk</t>
+  </si>
+  <si>
+    <t>Personnel Needs is zero</t>
+  </si>
+  <si>
+    <t>Strategy / Risk</t>
+  </si>
+  <si>
+    <t>Target-/Actual &amp; Forecast</t>
+  </si>
+  <si>
+    <t>Comparison latest Version</t>
+  </si>
+  <si>
+    <t>Comparison approved Version</t>
+  </si>
+  <si>
+    <t>Comparison Project-Template</t>
+  </si>
+  <si>
+    <t>Projectphases</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Reporting Periods</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Approved Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> latest version</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personnel Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (approved version)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Result Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Earned Value - rated </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Improvement Potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Risk Fee</t>
+  </si>
+  <si>
+    <t>Projects within tolerance (+/-</t>
+  </si>
+  <si>
+    <t>Projects without latest version</t>
+  </si>
+  <si>
+    <t>above Capacity</t>
+  </si>
+  <si>
+    <t>below Capacity</t>
+  </si>
+  <si>
+    <t>Fulfillment expected</t>
+  </si>
+  <si>
+    <t>Fulfillment with uncertainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfillment with high risks </t>
+  </si>
+  <si>
+    <t>Feasibility limit</t>
+  </si>
+  <si>
+    <t>Potentials</t>
+  </si>
+  <si>
+    <t>Cost to date</t>
+  </si>
+  <si>
+    <t>Cost Forecast</t>
+  </si>
+  <si>
+    <t>Personnel Needs</t>
+  </si>
+  <si>
+    <t>Personnel Costs (T€)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personnel Costs are zero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Costs are zero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personnel Costs </t>
+  </si>
+  <si>
+    <t>Other Costs</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum Other Cost is zero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost is zero </t>
+  </si>
+  <si>
+    <t>strategic Fit</t>
+  </si>
+  <si>
+    <t>History of KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Risk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">target / actual Personnel Cost not possible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">target / actual Other Cost not possible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">target / actual Total Cost not possible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no approved version </t>
+  </si>
+  <si>
+    <t>min/max Personnel Cost (T€)</t>
+  </si>
+  <si>
+    <t>target-/actual Personnel Cost (T€)</t>
+  </si>
+  <si>
+    <t>min/max Other Cost (T€)</t>
+  </si>
+  <si>
+    <t>target-/actual Other Cost (T€)</t>
+  </si>
+  <si>
+    <t>min/max Total Cost (T€)</t>
+  </si>
+  <si>
+    <t>target-/actual Total Cost (T€)</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>target-/actual Role Needs</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target-/actual Cost </t>
+  </si>
+  <si>
+    <t>Termine Phasen</t>
+  </si>
+  <si>
+    <t>Termine Meilensteine</t>
+  </si>
+  <si>
+    <t>Einschätzung strategischer Fit</t>
+  </si>
+  <si>
+    <t>Einschätzung Risiko</t>
+  </si>
+  <si>
+    <t>Projekt-Ampel</t>
+  </si>
+  <si>
+    <t>Project Traffic Light</t>
+  </si>
+  <si>
+    <t>Projekt-Ampel Erläuterung</t>
+  </si>
+  <si>
+    <t>Project Traffic Light Explanation</t>
+  </si>
+  <si>
+    <t>Termine</t>
+  </si>
+  <si>
+    <t>Erläuterung</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Dates of Phases</t>
+  </si>
+  <si>
+    <t>Dates of Milestones</t>
+  </si>
+  <si>
+    <t>Strategic Fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk </t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1790,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1647,15 +1798,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C240"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A185" colorId="22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A235" colorId="22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="118.28515625" customWidth="1"/>
+    <col min="1" max="1" width="65.140625" customWidth="1"/>
     <col min="2" max="2" width="122.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1760,7 +1912,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1784,7 +1936,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1800,7 +1952,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,7 +1960,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1832,7 +1984,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1840,7 +1992,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1912,7 +2064,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1936,7 +2088,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1960,7 +2112,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1968,7 +2120,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1976,7 +2128,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +2136,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +2144,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2152,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2160,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2168,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2176,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2184,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2192,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2208,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2216,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2224,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,15 +2232,15 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2248,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2256,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2264,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2272,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2280,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2288,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2296,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2304,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2312,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2320,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2328,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2336,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2344,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2352,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2360,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2368,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2376,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2384,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2392,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2400,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2408,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2416,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2424,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2432,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2440,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2448,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2456,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2464,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2472,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2480,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2488,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2496,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2504,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2512,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2520,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2528,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2536,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2544,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>252</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2552,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2560,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2568,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2576,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2584,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2592,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2600,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2608,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2616,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2624,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2632,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2640,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2648,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2656,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2664,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2672,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2680,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2688,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2696,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2704,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2712,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2720,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2728,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2736,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2744,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2752,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2760,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>276</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2768,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2776,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2792,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2800,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2808,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2816,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2824,7 @@
         <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2832,7 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2840,7 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2848,7 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2856,7 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2864,7 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2872,7 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2880,7 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2888,7 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2896,7 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2904,7 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2912,7 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2920,7 @@
         <v>120</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2776,7 +2928,7 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,7 +2936,7 @@
         <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2792,7 +2944,7 @@
         <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,7 +2952,7 @@
         <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>296</v>
+        <v>436</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,7 +2960,7 @@
         <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2816,7 +2968,7 @@
         <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>298</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2824,7 +2976,7 @@
         <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>299</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2840,7 +2992,7 @@
         <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +3000,7 @@
         <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,7 +3008,7 @@
         <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +3016,7 @@
         <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,7 +3024,7 @@
         <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2880,7 +3032,7 @@
         <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,7 +3040,7 @@
         <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +3048,7 @@
         <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2904,7 +3056,7 @@
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,7 +3064,7 @@
         <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +3072,7 @@
         <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,7 +3080,7 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>309</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2936,7 +3088,7 @@
         <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>310</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +3096,7 @@
         <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,7 +3104,7 @@
         <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>311</v>
+        <v>441</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,7 +3112,7 @@
         <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>312</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +3120,7 @@
         <v>51</v>
       </c>
       <c r="B164" t="s">
-        <v>313</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2976,7 +3128,7 @@
         <v>159</v>
       </c>
       <c r="B165" t="s">
-        <v>233</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +3136,7 @@
         <v>160</v>
       </c>
       <c r="B166" t="s">
-        <v>314</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +3144,7 @@
         <v>161</v>
       </c>
       <c r="B167" t="s">
-        <v>315</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +3152,7 @@
         <v>162</v>
       </c>
       <c r="B168" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,7 +3160,7 @@
         <v>163</v>
       </c>
       <c r="B169" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3016,7 +3168,7 @@
         <v>164</v>
       </c>
       <c r="B170" t="s">
-        <v>318</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3176,7 @@
         <v>165</v>
       </c>
       <c r="B171" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3184,7 @@
         <v>166</v>
       </c>
       <c r="B172" t="s">
-        <v>320</v>
+        <v>449</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3192,7 @@
         <v>49</v>
       </c>
       <c r="B173" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3200,7 @@
         <v>167</v>
       </c>
       <c r="B174" t="s">
-        <v>321</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +3208,7 @@
         <v>168</v>
       </c>
       <c r="B175" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3216,7 @@
         <v>169</v>
       </c>
       <c r="B176" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +3224,7 @@
         <v>170</v>
       </c>
       <c r="B177" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3080,7 +3232,7 @@
         <v>171</v>
       </c>
       <c r="B178" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +3240,7 @@
         <v>172</v>
       </c>
       <c r="B179" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +3248,7 @@
         <v>173</v>
       </c>
       <c r="B180" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +3256,7 @@
         <v>174</v>
       </c>
       <c r="B181" t="s">
-        <v>328</v>
+        <v>451</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +3264,7 @@
         <v>175</v>
       </c>
       <c r="B182" t="s">
-        <v>329</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +3272,7 @@
         <v>176</v>
       </c>
       <c r="B183" t="s">
-        <v>330</v>
+        <v>453</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3280,7 @@
         <v>26</v>
       </c>
       <c r="B184" t="s">
-        <v>331</v>
+        <v>454</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3288,7 @@
         <v>177</v>
       </c>
       <c r="B185" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3296,7 @@
         <v>178</v>
       </c>
       <c r="B186" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3304,7 @@
         <v>179</v>
       </c>
       <c r="B187" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3312,7 @@
         <v>180</v>
       </c>
       <c r="B188" t="s">
-        <v>335</v>
+        <v>456</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3320,7 @@
         <v>181</v>
       </c>
       <c r="B189" t="s">
-        <v>336</v>
+        <v>457</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3328,7 @@
         <v>182</v>
       </c>
       <c r="B190" t="s">
-        <v>337</v>
+        <v>458</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3336,7 @@
         <v>183</v>
       </c>
       <c r="B191" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3344,7 @@
         <v>184</v>
       </c>
       <c r="B192" t="s">
-        <v>339</v>
+        <v>460</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3200,7 +3352,7 @@
         <v>185</v>
       </c>
       <c r="B193" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3208,7 +3360,7 @@
         <v>186</v>
       </c>
       <c r="B194" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3216,7 +3368,7 @@
         <v>187</v>
       </c>
       <c r="B195" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,7 +3376,7 @@
         <v>188</v>
       </c>
       <c r="B196" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3232,7 +3384,7 @@
         <v>189</v>
       </c>
       <c r="B197" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3240,7 +3392,7 @@
         <v>190</v>
       </c>
       <c r="B198" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3248,7 +3400,7 @@
         <v>191</v>
       </c>
       <c r="B199" t="s">
-        <v>325</v>
+        <v>462</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3256,7 +3408,7 @@
         <v>192</v>
       </c>
       <c r="B200" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3264,7 +3416,7 @@
         <v>193</v>
       </c>
       <c r="B201" t="s">
-        <v>346</v>
+        <v>463</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3272,7 +3424,7 @@
         <v>194</v>
       </c>
       <c r="B202" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3280,7 +3432,7 @@
         <v>195</v>
       </c>
       <c r="B203" t="s">
-        <v>348</v>
+        <v>464</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3288,190 +3440,362 @@
         <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>349</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>393</v>
+        <v>344</v>
+      </c>
+      <c r="B205" t="s">
+        <v>381</v>
       </c>
       <c r="C205" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>394</v>
+        <v>345</v>
+      </c>
+      <c r="B206" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>395</v>
+        <v>346</v>
+      </c>
+      <c r="B207" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>348</v>
+      </c>
+      <c r="B208" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>349</v>
+      </c>
+      <c r="B209" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>350</v>
+      </c>
+      <c r="B210" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>351</v>
+      </c>
+      <c r="B211" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>352</v>
+      </c>
+      <c r="B212" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>353</v>
+      </c>
+      <c r="B213" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>354</v>
+      </c>
+      <c r="B214" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>355</v>
+      </c>
+      <c r="B215" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>356</v>
+      </c>
+      <c r="B216" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>357</v>
+      </c>
+      <c r="B217" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>358</v>
+      </c>
+      <c r="B218" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>359</v>
+      </c>
+      <c r="B219" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>360</v>
+      </c>
+      <c r="B220" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>361</v>
+      </c>
+      <c r="B221" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>362</v>
+      </c>
+      <c r="B222" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>363</v>
+      </c>
+      <c r="B223" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>364</v>
+      </c>
+      <c r="B224" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>365</v>
+      </c>
+      <c r="B225" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>366</v>
+      </c>
+      <c r="B226" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>367</v>
+      </c>
+      <c r="B227" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>368</v>
+      </c>
+      <c r="B228" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>369</v>
+      </c>
+      <c r="B229" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>370</v>
+      </c>
+      <c r="B230" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>371</v>
+      </c>
+      <c r="B231" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>372</v>
+      </c>
+      <c r="B232" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>373</v>
+      </c>
+      <c r="B233" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>374</v>
+      </c>
+      <c r="B234" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>375</v>
+      </c>
+      <c r="B235" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>376</v>
+      </c>
+      <c r="B236" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>377</v>
+      </c>
+      <c r="B237" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>378</v>
+      </c>
+      <c r="B238" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>379</v>
+      </c>
+      <c r="B239" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>429</v>
+        <v>380</v>
+      </c>
+      <c r="B240" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>466</v>
+      </c>
+      <c r="B241" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>467</v>
+      </c>
+      <c r="B242" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>468</v>
+      </c>
+      <c r="B243" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>469</v>
+      </c>
+      <c r="B244" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>470</v>
+      </c>
+      <c r="B245" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>472</v>
+      </c>
+      <c r="B246" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>474</v>
+      </c>
+      <c r="B247" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>475</v>
+      </c>
+      <c r="B248" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
